--- a/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC-313.15-10-900-10" sheetId="1" r:id="rId1"/>
-    <sheet name="AC-313.15-20-540-8" sheetId="2" r:id="rId4"/>
-    <sheet name="AC-313.15-20-720-8" sheetId="3" r:id="rId5"/>
-    <sheet name="Ubtreated" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 AC-313.15-10-900-10  0" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 AC-313.15-20-540-8  0-" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC-313.15-20-720-8  0-" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 Ubtreated  0-1-0-350 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-313.15-10-900-10</a:t>
+              <a:t>Izoterma adsorpcji probki AC-313.15-10-900-10 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-313.15-10-900-10'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 AC-313.15-10-900-10  0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-313.15-10-900-10'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 AC-313.15-10-900-10  0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-313.15-20-540-8</a:t>
+              <a:t>Izoterma adsorpcji probki AC-313.15-20-540-8 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-313.15-20-540-8'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 AC-313.15-20-540-8  0-'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-313.15-20-540-8'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 AC-313.15-20-540-8  0-'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC-313.15-20-720-8</a:t>
+              <a:t>Izoterma adsorpcji probki AC-313.15-20-720-8 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC-313.15-20-720-8'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 AC-313.15-20-720-8  0-'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC-313.15-20-720-8'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 AC-313.15-20-720-8  0-'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Ubtreated</a:t>
+              <a:t>Izoterma adsorpcji probki Ubtreated z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ubtreated!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 Ubtreated  0-1-0-350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ubtreated!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 Ubtreated  0-1-0-350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,453 +4034,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9833</v>
+        <v>0.9903</v>
       </c>
       <c r="B3" s="0">
-        <v>332.3751</v>
+        <v>333.6944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9569</v>
+        <v>0.9494</v>
       </c>
       <c r="B4" s="0">
-        <v>328.8603</v>
+        <v>327.5412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9401</v>
+        <v>0.9027</v>
       </c>
       <c r="B5" s="0">
-        <v>325.7821</v>
+        <v>323.3741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9137</v>
+        <v>0.8556</v>
       </c>
       <c r="B6" s="0">
-        <v>324.0305</v>
+        <v>319.2072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8952</v>
+        <v>0.8049</v>
       </c>
       <c r="B7" s="0">
-        <v>322.7162</v>
+        <v>315.0419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8653</v>
+        <v>0.7556</v>
       </c>
       <c r="B8" s="0">
-        <v>320.5254</v>
+        <v>310.6556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8485</v>
+        <v>0.7036</v>
       </c>
       <c r="B9" s="0">
-        <v>318.3287</v>
+        <v>306.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8151</v>
+        <v>0.649</v>
       </c>
       <c r="B10" s="0">
-        <v>315.6986</v>
+        <v>301.8865</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7957</v>
+        <v>0.5997</v>
       </c>
       <c r="B11" s="0">
-        <v>313.944</v>
+        <v>297.0593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7622</v>
+        <v>0.5495</v>
       </c>
       <c r="B12" s="0">
-        <v>311.7547</v>
+        <v>293.1142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7481</v>
+        <v>0.4988</v>
       </c>
       <c r="B13" s="0">
-        <v>309.9977</v>
+        <v>289.1693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.712</v>
+        <v>0.4601</v>
       </c>
       <c r="B14" s="0">
-        <v>306.4872</v>
+        <v>285.2191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.697</v>
+        <v>0.4129</v>
       </c>
       <c r="B15" s="0">
-        <v>305.6121</v>
+        <v>280.8318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6574</v>
+        <v>0.3667</v>
       </c>
       <c r="B16" s="0">
-        <v>302.1032</v>
+        <v>275.7829</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6415</v>
+        <v>0.3191</v>
       </c>
       <c r="B17" s="0">
-        <v>300.7877</v>
+        <v>271.1754</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6081</v>
+        <v>0.2821</v>
       </c>
       <c r="B18" s="0">
-        <v>297.7168</v>
+        <v>268.3265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5913</v>
+        <v>0.2377</v>
       </c>
       <c r="B19" s="0">
-        <v>295.961</v>
+        <v>264.1585</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.557</v>
+        <v>0.2042</v>
       </c>
       <c r="B20" s="0">
-        <v>293.3313</v>
+        <v>261.5284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5411</v>
+        <v>0.1738</v>
       </c>
       <c r="B21" s="0">
-        <v>292.0159</v>
+        <v>258.6765</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5076</v>
+        <v>0.1518</v>
       </c>
       <c r="B22" s="0">
-        <v>290.2674</v>
+        <v>256.2618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.49</v>
+        <v>0.1267</v>
       </c>
       <c r="B23" s="0">
-        <v>288.512</v>
+        <v>253.4076</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4689</v>
+        <v>0.0994</v>
       </c>
       <c r="B24" s="0">
-        <v>286.3172</v>
+        <v>250.7748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.453</v>
+        <v>0.0729</v>
       </c>
       <c r="B25" s="0">
-        <v>284.561</v>
+        <v>245.7172</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4257</v>
+        <v>0.0567</v>
       </c>
       <c r="B26" s="0">
-        <v>281.9282</v>
+        <v>241.9775</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4046</v>
+        <v>0.0465</v>
       </c>
       <c r="B27" s="0">
-        <v>279.7335</v>
+        <v>237.3535</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3764</v>
+        <v>0.0333</v>
       </c>
       <c r="B28" s="0">
-        <v>276.6603</v>
+        <v>231.6289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3597</v>
+        <v>0.0245</v>
       </c>
       <c r="B29" s="0">
-        <v>274.4636</v>
+        <v>225.9023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.3279</v>
+        <v>0.0188</v>
       </c>
       <c r="B30" s="0">
-        <v>272.7144</v>
+        <v>219.5131</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.3112</v>
+        <v>0.0122</v>
       </c>
       <c r="B31" s="0">
-        <v>270.5177</v>
+        <v>210.9203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.291</v>
+        <v>0.0074</v>
       </c>
       <c r="B32" s="0">
-        <v>269.2042</v>
+        <v>199.9023</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.2725</v>
+        <v>0.0066</v>
       </c>
       <c r="B33" s="0">
-        <v>267.0084</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.2478</v>
-      </c>
-      <c r="B34" s="0">
-        <v>264.8152</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.2293</v>
-      </c>
-      <c r="B35" s="0">
-        <v>263.5009</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.2117</v>
-      </c>
-      <c r="B36" s="0">
-        <v>262.1863</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.1967</v>
-      </c>
-      <c r="B37" s="0">
-        <v>260.8705</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.1835</v>
-      </c>
-      <c r="B38" s="0">
-        <v>259.1131</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.1659</v>
-      </c>
-      <c r="B39" s="0">
-        <v>257.3576</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.1456</v>
-      </c>
-      <c r="B40" s="0">
-        <v>255.6033</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.1342</v>
-      </c>
-      <c r="B41" s="0">
-        <v>255.1676</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.1174</v>
-      </c>
-      <c r="B42" s="0">
-        <v>252.9709</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0945</v>
-      </c>
-      <c r="B43" s="0">
-        <v>249.8954</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0822</v>
-      </c>
-      <c r="B44" s="0">
-        <v>246.8152</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0655</v>
-      </c>
-      <c r="B45" s="0">
-        <v>244.1777</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0496</v>
-      </c>
-      <c r="B46" s="0">
-        <v>239.3358</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0417</v>
-      </c>
-      <c r="B47" s="0">
-        <v>234.0496</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0285</v>
-      </c>
-      <c r="B48" s="0">
-        <v>228.7658</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0215</v>
-      </c>
-      <c r="B49" s="0">
-        <v>223.4792</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0153</v>
-      </c>
-      <c r="B50" s="0">
-        <v>215.1066</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0092</v>
-      </c>
-      <c r="B51" s="0">
-        <v>205.8524</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0074</v>
-      </c>
-      <c r="B52" s="0">
-        <v>196.5962</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0057</v>
-      </c>
-      <c r="B53" s="0">
-        <v>186.8993</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0048</v>
-      </c>
-      <c r="B54" s="0">
-        <v>178.5243</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B55" s="0">
-        <v>172.3534</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0031</v>
-      </c>
-      <c r="B56" s="0">
-        <v>163.9785</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B57" s="0">
-        <v>154.2811</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0014</v>
-      </c>
-      <c r="B58" s="0">
-        <v>147.2286</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>183.152</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4489,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4510,437 +4310,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9845</v>
+        <v>0.9906</v>
       </c>
       <c r="B3" s="0">
-        <v>219.0875</v>
+        <v>220.1867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.973</v>
+        <v>0.9669</v>
       </c>
       <c r="B4" s="0">
-        <v>215.566</v>
+        <v>214.2463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9607</v>
+        <v>0.9338</v>
       </c>
       <c r="B5" s="0">
-        <v>214.2491</v>
+        <v>212.0569</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9422</v>
+        <v>0.8779</v>
       </c>
       <c r="B6" s="0">
-        <v>212.0532</v>
+        <v>208.3347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9237</v>
+        <v>0.8409</v>
       </c>
       <c r="B7" s="0">
-        <v>210.7389</v>
+        <v>206.5878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8858</v>
+        <v>0.8101</v>
       </c>
       <c r="B8" s="0">
-        <v>208.1108</v>
+        <v>205.4993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.87</v>
+        <v>0.7678</v>
       </c>
       <c r="B9" s="0">
-        <v>208.1178</v>
+        <v>203.7548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8497</v>
+        <v>0.7308</v>
       </c>
       <c r="B10" s="0">
-        <v>205.9227</v>
+        <v>203.1099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8338</v>
+        <v>0.7176</v>
       </c>
       <c r="B11" s="0">
-        <v>205.9297</v>
+        <v>201.5729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8189</v>
+        <v>0.6841</v>
       </c>
       <c r="B12" s="0">
-        <v>204.6138</v>
+        <v>200.4856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.803</v>
+        <v>0.6528</v>
       </c>
       <c r="B13" s="0">
-        <v>204.18</v>
+        <v>199.3974</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7792</v>
+        <v>0.6268</v>
       </c>
       <c r="B14" s="0">
-        <v>202.8681</v>
+        <v>198.0864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.7581</v>
+        <v>0.5867</v>
       </c>
       <c r="B15" s="0">
-        <v>203.759</v>
+        <v>195.2388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7396</v>
+        <v>0.5303</v>
       </c>
       <c r="B16" s="0">
-        <v>202.8856</v>
+        <v>193.5005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7246</v>
+        <v>0.5044</v>
       </c>
       <c r="B17" s="0">
-        <v>201.129</v>
+        <v>192.1895</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.7096</v>
+        <v>0.4326</v>
       </c>
       <c r="B18" s="0">
-        <v>200.6947</v>
+        <v>190.4579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.692</v>
+        <v>0.411</v>
       </c>
       <c r="B19" s="0">
-        <v>200.2617</v>
+        <v>190.0266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6753</v>
+        <v>0.3612</v>
       </c>
       <c r="B20" s="0">
-        <v>198.9467</v>
+        <v>188.7262</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6612</v>
+        <v>0.3092</v>
       </c>
       <c r="B21" s="0">
-        <v>198.0713</v>
+        <v>187.4267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6453</v>
+        <v>0.2907</v>
       </c>
       <c r="B22" s="0">
-        <v>198.0783</v>
+        <v>185.892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6339</v>
+        <v>0.2471</v>
       </c>
       <c r="B23" s="0">
-        <v>197.6425</v>
+        <v>184.148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6162</v>
+        <v>0.2132</v>
       </c>
       <c r="B24" s="0">
-        <v>195.4462</v>
+        <v>180.1957</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.596</v>
+        <v>0.1722</v>
       </c>
       <c r="B25" s="0">
-        <v>193.6919</v>
+        <v>177.3485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5766</v>
+        <v>0.1441</v>
       </c>
       <c r="B26" s="0">
-        <v>193.2597</v>
+        <v>173.6141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5387</v>
+        <v>0.1071</v>
       </c>
       <c r="B27" s="0">
-        <v>192.8356</v>
+        <v>169.8835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.522</v>
+        <v>0.0864</v>
       </c>
       <c r="B28" s="0">
-        <v>193.2838</v>
+        <v>168.3498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4973</v>
+        <v>0.0639</v>
       </c>
       <c r="B29" s="0">
-        <v>191.5314</v>
+        <v>163.2905</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5123</v>
+        <v>0.0511</v>
       </c>
       <c r="B30" s="0">
-        <v>192.4064</v>
+        <v>159.9901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4418</v>
+        <v>0.0349</v>
       </c>
       <c r="B31" s="0">
-        <v>190.6743</v>
+        <v>153.6055</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4268</v>
+        <v>0.0217</v>
       </c>
       <c r="B32" s="0">
-        <v>190.2401</v>
+        <v>146.9993</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.418</v>
+        <v>0.0107</v>
       </c>
       <c r="B33" s="0">
-        <v>190.2439</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.4048</v>
-      </c>
-      <c r="B34" s="0">
-        <v>189.3682</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.3678</v>
-      </c>
-      <c r="B35" s="0">
-        <v>188.062</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.3546</v>
-      </c>
-      <c r="B36" s="0">
-        <v>187.6271</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.3185</v>
-      </c>
-      <c r="B37" s="0">
-        <v>187.2022</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.3009</v>
-      </c>
-      <c r="B38" s="0">
-        <v>186.7691</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.2841</v>
-      </c>
-      <c r="B39" s="0">
-        <v>185.0133</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.2559</v>
-      </c>
-      <c r="B40" s="0">
-        <v>184.1441</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.2383</v>
-      </c>
-      <c r="B41" s="0">
-        <v>183.2703</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.2207</v>
-      </c>
-      <c r="B42" s="0">
-        <v>181.074</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.2022</v>
-      </c>
-      <c r="B43" s="0">
-        <v>179.7597</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1802</v>
-      </c>
-      <c r="B44" s="0">
-        <v>177.1246</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1652</v>
-      </c>
-      <c r="B45" s="0">
-        <v>176.6904</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1511</v>
-      </c>
-      <c r="B46" s="0">
-        <v>175.3742</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.1388</v>
-      </c>
-      <c r="B47" s="0">
-        <v>174.0572</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1141</v>
-      </c>
-      <c r="B48" s="0">
-        <v>171.4233</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.1027</v>
-      </c>
-      <c r="B49" s="0">
-        <v>170.1059</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0868</v>
-      </c>
-      <c r="B50" s="0">
-        <v>167.468</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0657</v>
-      </c>
-      <c r="B51" s="0">
-        <v>163.0693</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0428</v>
-      </c>
-      <c r="B52" s="0">
-        <v>157.7897</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0296</v>
-      </c>
-      <c r="B53" s="0">
-        <v>152.5059</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0181</v>
-      </c>
-      <c r="B54" s="0">
-        <v>145.0172</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0085</v>
-      </c>
-      <c r="B55" s="0">
-        <v>140.1726</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0032</v>
-      </c>
-      <c r="B56" s="0">
-        <v>134.0036</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>143.0369</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4949,7 +4565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4970,397 +4586,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.9896</v>
       </c>
       <c r="B3" s="0">
-        <v>178.5039</v>
+        <v>265.3698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.9716</v>
       </c>
       <c r="B4" s="0">
-        <v>190.6257</v>
+        <v>263.1737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.946</v>
       </c>
       <c r="B5" s="0">
-        <v>198.8034</v>
+        <v>261.2014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.913</v>
       </c>
       <c r="B6" s="0">
-        <v>204.4436</v>
+        <v>259.6731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.8659</v>
       </c>
       <c r="B7" s="0">
-        <v>208.902</v>
+        <v>257.2695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.8408</v>
       </c>
       <c r="B8" s="0">
-        <v>211.584</v>
+        <v>255.5173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.7919</v>
       </c>
       <c r="B9" s="0">
-        <v>214.3024</v>
+        <v>253.7756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.7553</v>
       </c>
       <c r="B10" s="0">
-        <v>215.8971</v>
+        <v>252.0285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.7333</v>
       </c>
       <c r="B11" s="0">
-        <v>216.7741</v>
+        <v>249.3934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.6892</v>
       </c>
       <c r="B12" s="0">
-        <v>218.0692</v>
+        <v>246.768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.6492</v>
       </c>
       <c r="B13" s="0">
-        <v>219.4034</v>
+        <v>245.2428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.6108</v>
       </c>
       <c r="B14" s="0">
-        <v>220.3775</v>
+        <v>243.9373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.5611</v>
       </c>
       <c r="B15" s="0">
-        <v>221.8022</v>
+        <v>240.8736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.5316</v>
       </c>
       <c r="B16" s="0">
-        <v>223.7533</v>
+        <v>239.7846</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.499</v>
       </c>
       <c r="B17" s="0">
-        <v>225.2658</v>
+        <v>236.0521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4487</v>
       </c>
       <c r="B18" s="0">
-        <v>226.4701</v>
+        <v>234.5314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.3985</v>
       </c>
       <c r="B19" s="0">
-        <v>228.7648</v>
+        <v>232.7903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.3505</v>
       </c>
       <c r="B20" s="0">
-        <v>230.235</v>
+        <v>229.9462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.3188</v>
       </c>
       <c r="B21" s="0">
-        <v>231.676</v>
+        <v>226.2134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.2893</v>
       </c>
       <c r="B22" s="0">
-        <v>233.0544</v>
+        <v>224.6836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.2699</v>
       </c>
       <c r="B23" s="0">
-        <v>233.2198</v>
+        <v>222.4881</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.2426</v>
       </c>
       <c r="B24" s="0">
-        <v>234.105</v>
+        <v>220.2961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.2166</v>
       </c>
       <c r="B25" s="0">
-        <v>234.5185</v>
+        <v>218.5443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.1849</v>
       </c>
       <c r="B26" s="0">
-        <v>235.2477</v>
+        <v>216.5747</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.1519</v>
       </c>
       <c r="B27" s="0">
-        <v>236.4308</v>
+        <v>215.4872</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.1211</v>
       </c>
       <c r="B28" s="0">
-        <v>238.134</v>
+        <v>211.0927</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.0959</v>
       </c>
       <c r="B29" s="0">
-        <v>239.7706</v>
+        <v>208.459</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.0731</v>
       </c>
       <c r="B30" s="0">
-        <v>240.8368</v>
+        <v>202.0774</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.0572</v>
       </c>
       <c r="B31" s="0">
-        <v>241.2923</v>
+        <v>198.3375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.0488</v>
       </c>
       <c r="B32" s="0">
-        <v>242.505</v>
+        <v>194.1535</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.0339</v>
       </c>
       <c r="B33" s="0">
-        <v>243.4744</v>
+        <v>189.0909</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.0251</v>
       </c>
       <c r="B34" s="0">
-        <v>244.1259</v>
+        <v>183.1439</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.0167</v>
       </c>
       <c r="B35" s="0">
-        <v>244.8882</v>
+        <v>174.9926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.0088</v>
       </c>
       <c r="B36" s="0">
-        <v>245.9987</v>
+        <v>168.6044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.0075</v>
       </c>
       <c r="B37" s="0">
-        <v>246.8521</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>247.6315</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>249.458</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>251.2611</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>252.5345</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>253.1203</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>253.3777</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>254.4335</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>256.0037</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>256.8492</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>258.3014</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>259.8019</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>260.7843</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>262.4306</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>264.6328</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>160.4501</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5369,7 +4873,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5390,10 +4894,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9907</v>
+        <v>0.9912</v>
       </c>
       <c r="B3" s="0">
-        <v>176.3265</v>
+        <v>177.2079</v>
       </c>
     </row>
     <row r="4">
@@ -5406,301 +4910,253 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9555</v>
+        <v>0.963</v>
       </c>
       <c r="B5" s="0">
-        <v>159.1506</v>
+        <v>161.1309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9062</v>
+        <v>0.8957</v>
       </c>
       <c r="B6" s="0">
-        <v>150.3562</v>
+        <v>148.5976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8877</v>
+        <v>0.8274</v>
       </c>
       <c r="B7" s="0">
-        <v>148.1603</v>
+        <v>143.9993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8358</v>
+        <v>0.7578</v>
       </c>
       <c r="B8" s="0">
-        <v>143.7752</v>
+        <v>140.0627</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8164</v>
+        <v>0.6878</v>
       </c>
       <c r="B9" s="0">
-        <v>142.9021</v>
+        <v>136.1263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7679</v>
+        <v>0.6168</v>
       </c>
       <c r="B10" s="0">
-        <v>139.397</v>
+        <v>132.4107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7477</v>
+        <v>0.5473</v>
       </c>
       <c r="B11" s="0">
-        <v>138.9651</v>
+        <v>128.9149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6966</v>
+        <v>0.4772</v>
       </c>
       <c r="B12" s="0">
-        <v>135.902</v>
+        <v>126.301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6798</v>
+        <v>0.4059</v>
       </c>
       <c r="B13" s="0">
-        <v>135.9094</v>
+        <v>123.2468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6261</v>
+        <v>0.3583</v>
       </c>
       <c r="B14" s="0">
-        <v>132.8474</v>
+        <v>120.8433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6085</v>
+        <v>0.2843</v>
       </c>
       <c r="B15" s="0">
-        <v>131.9736</v>
+        <v>117.1291</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5556</v>
+        <v>0.2098</v>
       </c>
       <c r="B16" s="0">
-        <v>128.4704</v>
+        <v>113.1947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5362</v>
+        <v>0.1354</v>
       </c>
       <c r="B17" s="0">
-        <v>128.9198</v>
+        <v>107.9378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.486</v>
+        <v>0.1248</v>
       </c>
       <c r="B18" s="0">
-        <v>126.2971</v>
+        <v>107.5016</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4666</v>
+        <v>0.1138</v>
       </c>
       <c r="B19" s="0">
-        <v>126.3056</v>
+        <v>106.1841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4164</v>
+        <v>0.1019</v>
       </c>
       <c r="B20" s="0">
-        <v>123.6829</v>
+        <v>105.3077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.397</v>
+        <v>0.0914</v>
       </c>
       <c r="B21" s="0">
-        <v>122.3691</v>
+        <v>103.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3671</v>
+        <v>0.0826</v>
       </c>
       <c r="B22" s="0">
-        <v>121.0598</v>
+        <v>103.3326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3477</v>
+        <v>0.0746</v>
       </c>
       <c r="B23" s="0">
-        <v>120.6276</v>
+        <v>102.2341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2931</v>
+        <v>0.0676</v>
       </c>
       <c r="B24" s="0">
-        <v>117.1252</v>
+        <v>101.3556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2728</v>
+        <v>0.0597</v>
       </c>
       <c r="B25" s="0">
-        <v>115.8117</v>
+        <v>99.5959</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2209</v>
+        <v>0.0509</v>
       </c>
       <c r="B26" s="0">
-        <v>113.6306</v>
+        <v>97.3957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1997</v>
+        <v>0.0438</v>
       </c>
       <c r="B27" s="0">
-        <v>111.8767</v>
+        <v>95.1948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.1345</v>
+        <v>0.0359</v>
       </c>
       <c r="B28" s="0">
-        <v>107.4974</v>
+        <v>93.8759</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1196</v>
+        <v>0.0271</v>
       </c>
       <c r="B29" s="0">
-        <v>107.0632</v>
+        <v>91.6757</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.109</v>
+        <v>0.0209</v>
       </c>
       <c r="B30" s="0">
-        <v>105.7454</v>
+        <v>89.0336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0949</v>
+        <v>0.0148</v>
       </c>
       <c r="B31" s="0">
-        <v>104.4292</v>
+        <v>85.5099</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0729</v>
+        <v>0.0104</v>
       </c>
       <c r="B32" s="0">
-        <v>100.9125</v>
+        <v>81.5445</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0826</v>
+        <v>0.006</v>
       </c>
       <c r="B33" s="0">
-        <v>102.6714</v>
+        <v>74.9344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0561</v>
+        <v>0.0042</v>
       </c>
       <c r="B34" s="0">
-        <v>99.1566</v>
+        <v>67.8823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0456</v>
+        <v>0.0034</v>
       </c>
       <c r="B35" s="0">
-        <v>96.5164</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.035</v>
-      </c>
-      <c r="B36" s="0">
-        <v>93.4355</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0244</v>
-      </c>
-      <c r="B37" s="0">
-        <v>89.032</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0139</v>
-      </c>
-      <c r="B38" s="0">
-        <v>84.1878</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B39" s="0">
-        <v>78.4589</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0033</v>
-      </c>
-      <c r="B40" s="0">
-        <v>71.4091</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0016</v>
-      </c>
-      <c r="B41" s="0">
-        <v>63.9162</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>61.2706</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 126 A facile and green/Data126_all_graphs_excel.xlsx
@@ -6,9 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="Figure 1 AC-313.15-10-900-10  0" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 AC-313.15-20-540-8  0-" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC-313.15-20-720-8  0-" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 Ubtreated  0-1-0-350 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 AC-313.15-20-540-8  0&amp;" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC-313.15-20-720-8  0&amp;" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 Ubtreated  0&amp;1&amp;0&amp;350 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC-313.15-20-540-8  0-'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC-313.15-20-540-8  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC-313.15-20-540-8  0-'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC-313.15-20-540-8  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC-313.15-20-720-8  0-'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC-313.15-20-720-8  0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC-313.15-20-720-8  0-'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC-313.15-20-720-8  0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 Ubtreated  0-1-0-350 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 Ubtreated  0&amp;1&amp;0&amp;350 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 Ubtreated  0-1-0-350 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 Ubtreated  0&amp;1&amp;0&amp;350 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
